--- a/homework_workbook/Excel_Homework_Exercises_ANSWERS.xlsx
+++ b/homework_workbook/Excel_Homework_Exercises_ANSWERS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\Maven Analytics\Excel Maven\Udemy\Course 1 - Formulas &amp; Functions\FINAL Resource Docs\Excel\Excel Homework Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MASTER\Documents\Especializacion\Excel\craft_excel\homework_workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE15D89D-8551-41A5-9554-E08EFE4822A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AABED5-94EC-4778-9DDD-F8A2008FBD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="709" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="3360" windowWidth="15375" windowHeight="7785" tabRatio="709" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="237">
   <si>
     <t>State</t>
   </si>
@@ -804,19 +804,22 @@
   <si>
     <t>Growth</t>
   </si>
+  <si>
+    <t>Z</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="166" formatCode="dddd"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="m/d;@"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="168" formatCode="dddd"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -996,7 +999,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="74">
@@ -1019,10 +1022,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1053,10 +1056,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1104,54 +1107,54 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1160,7 +1163,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1173,22 +1176,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1206,9 +1209,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -5502,15 +5505,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="8.85546875" style="2"/>
     <col min="5" max="6" width="16" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>126</v>
       </c>
@@ -5530,7 +5533,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>42370</v>
       </c>
@@ -5552,7 +5555,7 @@
         <v>0.12328767123287671</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>42370</v>
       </c>
@@ -5574,7 +5577,7 @@
         <v>8.8757396449704137E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>42370</v>
       </c>
@@ -5596,7 +5599,7 @@
         <v>9.5477386934673364E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>42371</v>
       </c>
@@ -5618,7 +5621,7 @@
         <v>3.5587188612099648E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>42371</v>
       </c>
@@ -5640,7 +5643,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>42371</v>
       </c>
@@ -5662,7 +5665,7 @@
         <v>5.4151624548736461E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>42372</v>
       </c>
@@ -5684,7 +5687,7 @@
         <v>0.10344827586206896</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>42372</v>
       </c>
@@ -5706,7 +5709,7 @@
         <v>5.2863436123348019E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>42372</v>
       </c>
@@ -5728,7 +5731,7 @@
         <v>8.8888888888888892E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>42373</v>
       </c>
@@ -5750,7 +5753,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>42374</v>
       </c>
@@ -5772,7 +5775,7 @@
         <v>4.1322314049586778E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>42374</v>
       </c>
@@ -5794,7 +5797,7 @@
         <v>7.441860465116279E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>42374</v>
       </c>
@@ -5816,7 +5819,7 @@
         <v>6.5573770491803282E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>42374</v>
       </c>
@@ -5838,7 +5841,7 @@
         <v>7.2625698324022353E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>42374</v>
       </c>
@@ -5860,7 +5863,7 @@
         <v>5.0724637681159424E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>42375</v>
       </c>
@@ -5882,7 +5885,7 @@
         <v>0.15748031496062992</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>42375</v>
       </c>
@@ -5904,7 +5907,7 @@
         <v>6.3604240282685506E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <v>42375</v>
       </c>
@@ -5926,7 +5929,7 @@
         <v>0.15873015873015872</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>42376</v>
       </c>
@@ -5948,7 +5951,7 @@
         <v>7.2519083969465645E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>42376</v>
       </c>
@@ -5970,7 +5973,7 @@
         <v>4.878048780487805E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <v>42376</v>
       </c>
@@ -5992,7 +5995,7 @@
         <v>5.204460966542751E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <v>42377</v>
       </c>
@@ -6014,7 +6017,7 @@
         <v>3.6764705882352942E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <v>42377</v>
       </c>
@@ -6036,7 +6039,7 @@
         <v>5.3921568627450983E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>42377</v>
       </c>
@@ -6058,7 +6061,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>42377</v>
       </c>
@@ -6080,10 +6083,10 @@
         <v>7.2796934865900387E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
     </row>
   </sheetData>
@@ -6101,19 +6104,19 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>135</v>
       </c>
@@ -6121,25 +6124,25 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>136</v>
       </c>
       <c r="C3" s="48">
         <f ca="1">TODAY()</f>
-        <v>44498</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44718</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>137</v>
       </c>
       <c r="C4" s="49">
         <f ca="1">NOW()</f>
-        <v>44498.863086689817</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44718.880493865741</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>138</v>
       </c>
@@ -6159,33 +6162,33 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="50">
         <f ca="1">YEAR(C3)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C7" s="50">
         <f ca="1">MONTH(C3)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" s="50">
         <f ca="1">DAY(C3)</f>
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E7" s="50">
         <f ca="1">HOUR(C4)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="50">
         <f ca="1">MINUTE(C4)</f>
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="G7" s="50">
         <f ca="1">SECOND(C4)</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -6194,143 +6197,143 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>142</v>
       </c>
       <c r="C9" s="51">
         <f ca="1">WEEKDAY(C3)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
       <c r="C10" s="27"/>
     </row>
-    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>143</v>
       </c>
       <c r="C11" s="48">
         <f ca="1">WORKDAY(C3,50)</f>
-        <v>44568</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="28" t="s">
         <v>144</v>
       </c>
       <c r="C12" s="52">
         <f ca="1">NETWORKDAYS(C2,C3)</f>
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="28" t="s">
         <v>145</v>
       </c>
       <c r="C14" s="48">
         <f ca="1">EOMONTH(C3,0)</f>
-        <v>44500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="28" t="s">
         <v>146</v>
       </c>
       <c r="C15" s="48">
         <f ca="1">EOMONTH(C3,-1)+1</f>
-        <v>44470</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="28" t="s">
         <v>147</v>
       </c>
       <c r="C16" s="48">
         <f ca="1">EOMONTH(C3,(-1*C7))+1</f>
-        <v>44197</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="29">
         <v>42005</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="29">
         <v>42370</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="29">
         <v>42736</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="29">
         <v>43101</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="29">
         <v>43466</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="29">
         <v>43831</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="29">
         <v>44197</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="29">
         <v>44562</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="29">
         <v>44927</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="29">
         <v>45292</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="29">
         <v>45658</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="29">
         <v>46023</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="29"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="29"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="29"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="29"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="29"/>
     </row>
   </sheetData>
@@ -6348,17 +6351,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="41" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="41" customWidth="1"/>
-    <col min="4" max="5" width="14.88671875" style="41" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="41" customWidth="1"/>
+    <col min="4" max="5" width="14.85546875" style="41" customWidth="1"/>
     <col min="6" max="6" width="24" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="68" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>126</v>
       </c>
@@ -6381,7 +6384,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>41640</v>
       </c>
@@ -6406,7 +6409,7 @@
         <v>0.41492265696087355</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>41671</v>
       </c>
@@ -6431,7 +6434,7 @@
         <v>0.17524916943521596</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>41699</v>
       </c>
@@ -6457,7 +6460,7 @@
         <v>0.50411522633744854</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>41730</v>
       </c>
@@ -6483,7 +6486,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>41760</v>
       </c>
@@ -6509,7 +6512,7 @@
         <v>0.43443132380360472</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>41791</v>
       </c>
@@ -6535,7 +6538,7 @@
         <v>0.39156626506024095</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>41821</v>
       </c>
@@ -6561,7 +6564,7 @@
         <v>0.57631444614599281</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>41852</v>
       </c>
@@ -6587,7 +6590,7 @@
         <v>0.51498929336188437</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>41883</v>
       </c>
@@ -6613,7 +6616,7 @@
         <v>0.47848537005163511</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>41913</v>
       </c>
@@ -6639,7 +6642,7 @@
         <v>0.3377808988764045</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>41944</v>
       </c>
@@ -6665,7 +6668,7 @@
         <v>0.34983766233766234</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>41974</v>
       </c>
@@ -6691,7 +6694,7 @@
         <v>0.54775604142692746</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>42005</v>
       </c>
@@ -6717,7 +6720,7 @@
         <v>0.5993031358885017</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>42036</v>
       </c>
@@ -6743,7 +6746,7 @@
         <v>0.59571045576407511</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>42064</v>
       </c>
@@ -6769,7 +6772,7 @@
         <v>0.51458670988654787</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>42095</v>
       </c>
@@ -6795,7 +6798,7 @@
         <v>0.40393151553582751</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>42125</v>
       </c>
@@ -6821,7 +6824,7 @@
         <v>0.51891074130105896</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>42156</v>
       </c>
@@ -6847,7 +6850,7 @@
         <v>0.57448377581120946</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>42186</v>
       </c>
@@ -6872,7 +6875,7 @@
         <v>0.47118463180362863</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>42217</v>
       </c>
@@ -6898,7 +6901,7 @@
         <v>0.60243407707910746</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>42248</v>
       </c>
@@ -6923,7 +6926,7 @@
         <v>0.36644364384971695</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>42278</v>
       </c>
@@ -6949,7 +6952,7 @@
         <v>0.54501385041551242</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>42309</v>
       </c>
@@ -6975,7 +6978,7 @@
         <v>0.4105827193569993</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>42339</v>
       </c>
@@ -7045,28 +7048,28 @@
   </sheetPr>
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.28515625" customWidth="1"/>
     <col min="16" max="17" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>207</v>
       </c>
@@ -7098,7 +7101,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>211</v>
       </c>
@@ -7138,7 +7141,7 @@
         <v>Sam</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>212</v>
       </c>
@@ -7170,7 +7173,7 @@
         <v>21279</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>213</v>
       </c>
@@ -7208,7 +7211,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>214</v>
       </c>
@@ -7248,7 +7251,7 @@
         <v>136990</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>215</v>
       </c>
@@ -7286,7 +7289,7 @@
         <v>162245</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>159</v>
       </c>
@@ -7318,7 +7321,7 @@
         <v>28543</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>216</v>
       </c>
@@ -7356,7 +7359,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>217</v>
       </c>
@@ -7388,7 +7391,7 @@
         <v>21824</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>218</v>
       </c>
@@ -7435,7 +7438,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>219</v>
       </c>
@@ -7483,7 +7486,7 @@
         <v>15332</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>220</v>
       </c>
@@ -7530,7 +7533,7 @@
         <v>21973</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>221</v>
       </c>
@@ -7577,7 +7580,7 @@
         <v>18721</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>222</v>
       </c>
@@ -7624,7 +7627,7 @@
         <v>25897</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>223</v>
       </c>
@@ -7656,7 +7659,7 @@
         <v>15332</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>224</v>
       </c>
@@ -7688,7 +7691,7 @@
         <v>10283</v>
       </c>
     </row>
-    <row r="17" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M17" s="71" t="s">
         <v>208</v>
       </c>
@@ -7696,7 +7699,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M18" s="57" t="str" cm="1">
         <f t="array" ref="M18:N20">_xlfn.LET(_xlpm.office,_xlfn.UNIQUE(B2:B16),
 _xlpm.sales2015,SUMIFS(D2:D16,B2:B16,_xlpm.office),
@@ -7710,7 +7713,7 @@
         <v>6742</v>
       </c>
     </row>
-    <row r="19" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M19" s="2" t="str">
         <v>NYC</v>
       </c>
@@ -7718,7 +7721,7 @@
         <v>-3494</v>
       </c>
     </row>
-    <row r="20" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M20" s="2" t="str">
         <v>BOS</v>
       </c>
@@ -7747,17 +7750,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.88671875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="35" customWidth="1"/>
+    <col min="1" max="2" width="14.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="35" customWidth="1"/>
     <col min="4" max="4" width="14" style="35" customWidth="1"/>
     <col min="5" max="5" width="12" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>152</v>
       </c>
@@ -7780,7 +7783,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>156</v>
       </c>
@@ -7807,7 +7810,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>159</v>
       </c>
@@ -7834,7 +7837,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>160</v>
       </c>
@@ -7861,7 +7864,7 @@
         <v>Female Achiever</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>161</v>
       </c>
@@ -7888,7 +7891,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>162</v>
       </c>
@@ -7915,7 +7918,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>163</v>
       </c>
@@ -7942,7 +7945,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>164</v>
       </c>
@@ -7969,7 +7972,7 @@
         <v>Male Achiever</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>165</v>
       </c>
@@ -7996,7 +7999,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>166</v>
       </c>
@@ -8023,7 +8026,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>167</v>
       </c>
@@ -8050,7 +8053,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>168</v>
       </c>
@@ -8077,7 +8080,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
         <v>169</v>
       </c>
@@ -8104,7 +8107,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
         <v>170</v>
       </c>
@@ -8131,7 +8134,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
         <v>171</v>
       </c>
@@ -8158,7 +8161,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>172</v>
       </c>
@@ -8185,12 +8188,12 @@
         <v>None</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E19" s="69" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E20" s="70" t="s">
         <v>231</v>
       </c>
@@ -8208,25 +8211,27 @@
   </sheetPr>
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>112</v>
       </c>
@@ -8246,7 +8251,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>116</v>
       </c>
@@ -8273,7 +8278,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>116</v>
       </c>
@@ -8295,7 +8300,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>116</v>
       </c>
@@ -8318,7 +8323,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>116</v>
       </c>
@@ -8335,11 +8340,11 @@
         <v>3072</v>
       </c>
       <c r="H5" s="46">
-        <f>SUMIF(A:A,$H$2,D:D)</f>
+        <f>SUMIF(A2:A70,H2,D2:D70)</f>
         <v>620</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>116</v>
       </c>
@@ -8356,7 +8361,7 @@
         <v>25650</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>116</v>
       </c>
@@ -8373,7 +8378,7 @@
         <v>3876</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>120</v>
+        <v>236</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>122</v>
@@ -8382,7 +8387,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>116</v>
       </c>
@@ -8414,7 +8419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>116</v>
       </c>
@@ -8446,7 +8451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>116</v>
       </c>
@@ -8478,7 +8483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>118</v>
       </c>
@@ -8495,7 +8500,7 @@
         <v>4446</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>118</v>
       </c>
@@ -8512,7 +8517,7 @@
         <v>5537</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>118</v>
       </c>
@@ -8529,7 +8534,7 @@
         <v>21390</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>118</v>
       </c>
@@ -8546,7 +8551,7 @@
         <v>3535</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>118</v>
       </c>
@@ -8563,7 +8568,7 @@
         <v>11324</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>118</v>
       </c>
@@ -8580,7 +8585,7 @@
         <v>17850</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>118</v>
       </c>
@@ -8597,7 +8602,7 @@
         <v>3298</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>118</v>
       </c>
@@ -8614,7 +8619,7 @@
         <v>17907</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>118</v>
       </c>
@@ -8631,7 +8636,7 @@
         <v>12584</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>118</v>
       </c>
@@ -8648,7 +8653,7 @@
         <v>9282</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>119</v>
       </c>
@@ -8665,7 +8670,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>119</v>
       </c>
@@ -8682,7 +8687,7 @@
         <v>14484</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>119</v>
       </c>
@@ -8699,7 +8704,7 @@
         <v>11592</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>119</v>
       </c>
@@ -8716,7 +8721,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>119</v>
       </c>
@@ -8733,7 +8738,7 @@
         <v>16269</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>119</v>
       </c>
@@ -8750,7 +8755,7 @@
         <v>13524</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>119</v>
       </c>
@@ -8767,7 +8772,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>119</v>
       </c>
@@ -8784,7 +8789,7 @@
         <v>22780</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>119</v>
       </c>
@@ -8801,7 +8806,7 @@
         <v>20160</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>119</v>
       </c>
@@ -8818,7 +8823,7 @@
         <v>14070</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>119</v>
       </c>
@@ -8835,7 +8840,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>119</v>
       </c>
@@ -8852,7 +8857,7 @@
         <v>14076</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>119</v>
       </c>
@@ -8869,7 +8874,7 @@
         <v>7548</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>119</v>
       </c>
@@ -8886,7 +8891,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>119</v>
       </c>
@@ -8903,7 +8908,7 @@
         <v>5969</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>119</v>
       </c>
@@ -8920,7 +8925,7 @@
         <v>9384</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>119</v>
       </c>
@@ -8937,7 +8942,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>119</v>
       </c>
@@ -8954,7 +8959,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>121</v>
       </c>
@@ -8971,7 +8976,7 @@
         <v>4865</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>121</v>
       </c>
@@ -8988,7 +8993,7 @@
         <v>3266</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>121</v>
       </c>
@@ -9005,7 +9010,7 @@
         <v>22860</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>121</v>
       </c>
@@ -9022,7 +9027,7 @@
         <v>25137</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>121</v>
       </c>
@@ -9039,7 +9044,7 @@
         <v>9752</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>121</v>
       </c>
@@ -9056,7 +9061,7 @@
         <v>14136</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>121</v>
       </c>
@@ -9073,7 +9078,7 @@
         <v>10098</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>121</v>
       </c>
@@ -9090,7 +9095,7 @@
         <v>3383</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>121</v>
       </c>
@@ -9107,7 +9112,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>121</v>
       </c>
@@ -9124,7 +9129,7 @@
         <v>10152</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>121</v>
       </c>
@@ -9141,7 +9146,7 @@
         <v>3264</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>121</v>
       </c>
@@ -9158,7 +9163,7 @@
         <v>16302</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>121</v>
       </c>
@@ -9175,7 +9180,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>121</v>
       </c>
@@ -9192,7 +9197,7 @@
         <v>7548</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>121</v>
       </c>
@@ -9209,7 +9214,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>121</v>
       </c>
@@ -9226,7 +9231,7 @@
         <v>12276</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>121</v>
       </c>
@@ -9243,7 +9248,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>121</v>
       </c>
@@ -9260,7 +9265,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>121</v>
       </c>
@@ -9277,7 +9282,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>121</v>
       </c>
@@ -9294,7 +9299,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>121</v>
       </c>
@@ -9311,7 +9316,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>121</v>
       </c>
@@ -9328,7 +9333,7 @@
         <v>8968</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>121</v>
       </c>
@@ -9345,7 +9350,7 @@
         <v>5418</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>121</v>
       </c>
@@ -9362,7 +9367,7 @@
         <v>7194</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>121</v>
       </c>
@@ -9379,7 +9384,7 @@
         <v>8468</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>121</v>
       </c>
@@ -9396,7 +9401,7 @@
         <v>8010</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>121</v>
       </c>
@@ -9413,7 +9418,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>121</v>
       </c>
@@ -9430,7 +9435,7 @@
         <v>4116</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>121</v>
       </c>
@@ -9447,7 +9452,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>121</v>
       </c>
@@ -9464,7 +9469,7 @@
         <v>6270</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>121</v>
       </c>
@@ -9481,7 +9486,7 @@
         <v>6350</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>121</v>
       </c>
@@ -9523,17 +9528,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="12.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="12.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="15" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>204</v>
       </c>
@@ -9556,7 +9561,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>B2&amp;C2</f>
         <v>Alabama2001</v>
@@ -9582,7 +9587,7 @@
         <v>24477</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f t="shared" ref="A3:A66" si="0">B3&amp;C3</f>
         <v>Alaska2001</v>
@@ -9608,7 +9613,7 @@
         <v>31027</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Arizona2001</v>
@@ -9634,7 +9639,7 @@
         <v>25878</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Arkansas2001</v>
@@ -9660,7 +9665,7 @@
         <v>22750</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>California2001</v>
@@ -9686,7 +9691,7 @@
         <v>32655</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Colorado2001</v>
@@ -9712,7 +9717,7 @@
         <v>33455</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Connecticut2001</v>
@@ -9738,7 +9743,7 @@
         <v>NO INCOME DATA</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>D.C.2001</v>
@@ -9764,7 +9769,7 @@
         <v>32166</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Delaware2001</v>
@@ -9790,7 +9795,7 @@
         <v>40539</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Florida2001</v>
@@ -9816,7 +9821,7 @@
         <v>29048</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Georgia2001</v>
@@ -9842,7 +9847,7 @@
         <v>28523</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Hawaii2001</v>
@@ -9868,7 +9873,7 @@
         <v>29034</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Idaho2001</v>
@@ -9894,7 +9899,7 @@
         <v>24506</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Illinois2001</v>
@@ -9920,7 +9925,7 @@
         <v>NO INCOME DATA</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Indiana2001</v>
@@ -9946,7 +9951,7 @@
         <v>27522</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Iowa2001</v>
@@ -9972,7 +9977,7 @@
         <v>27225</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Kansas2001</v>
@@ -9998,7 +10003,7 @@
         <v>28432</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Kentucky2001</v>
@@ -10024,7 +10029,7 @@
         <v>NO INCOME DATA</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Louisiana2001</v>
@@ -10050,7 +10055,7 @@
         <v>NO INCOME DATA</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Maine2001</v>
@@ -10076,7 +10081,7 @@
         <v>NO INCOME DATA</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Maryland2001</v>
@@ -10102,7 +10107,7 @@
         <v>35279</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Massachusetts2001</v>
@@ -10128,7 +10133,7 @@
         <v>38864</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Michigan2001</v>
@@ -10154,7 +10159,7 @@
         <v>29629</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Minnesota2001</v>
@@ -10180,7 +10185,7 @@
         <v>33059</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Mississippi2001</v>
@@ -10206,7 +10211,7 @@
         <v>21653</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Missouri2001</v>
@@ -10232,7 +10237,7 @@
         <v>28221</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Montana2001</v>
@@ -10258,7 +10263,7 @@
         <v>24044</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Nebraska2001</v>
@@ -10284,7 +10289,7 @@
         <v>28861</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Nevada2001</v>
@@ -10310,7 +10315,7 @@
         <v>30128</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>New Hampshire2001</v>
@@ -10336,7 +10341,7 @@
         <v>33969</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>New Jersey2001</v>
@@ -10362,7 +10367,7 @@
         <v>38625</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>New Mexico2001</v>
@@ -10388,7 +10393,7 @@
         <v>23081</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>New York2001</v>
@@ -10414,7 +10419,7 @@
         <v>35878</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>North Carolina2001</v>
@@ -10440,7 +10445,7 @@
         <v>27308</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>North Dakota2001</v>
@@ -10466,7 +10471,7 @@
         <v>25798</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Ohio2001</v>
@@ -10492,7 +10497,7 @@
         <v>28699</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Oklahoma2001</v>
@@ -10518,7 +10523,7 @@
         <v>24945</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Oregon2001</v>
@@ -10544,7 +10549,7 @@
         <v>28222</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Pennsylvania2001</v>
@@ -10570,7 +10575,7 @@
         <v>30752</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Rhode Island2001</v>
@@ -10596,7 +10601,7 @@
         <v>30256</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="str">
         <f t="shared" si="0"/>
         <v>South Carolina2001</v>
@@ -10622,7 +10627,7 @@
         <v>24840</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="str">
         <f t="shared" si="0"/>
         <v>South Dakota2001</v>
@@ -10648,7 +10653,7 @@
         <v>26566</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Tennessee2001</v>
@@ -10674,7 +10679,7 @@
         <v>26808</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Texas2001</v>
@@ -10700,7 +10705,7 @@
         <v>28472</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Utah2001</v>
@@ -10726,7 +10731,7 @@
         <v>24033</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Vermont2001</v>
@@ -10752,7 +10757,7 @@
         <v>28756</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Virginia2001</v>
@@ -10778,7 +10783,7 @@
         <v>32338</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Washington2001</v>
@@ -10804,7 +10809,7 @@
         <v>31976</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="str">
         <f t="shared" si="0"/>
         <v>West Virginia2001</v>
@@ -10830,7 +10835,7 @@
         <v>22862</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Wisconsin2001</v>
@@ -10856,7 +10861,7 @@
         <v>29196</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Wyoming2001</v>
@@ -10882,7 +10887,7 @@
         <v>29587</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Alabama2002</v>
@@ -10908,7 +10913,7 @@
         <v>25128</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Alaska2002</v>
@@ -10934,7 +10939,7 @@
         <v>32151</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Arizona2002</v>
@@ -10960,7 +10965,7 @@
         <v>26183</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Arkansas2002</v>
@@ -10986,7 +10991,7 @@
         <v>23512</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="str">
         <f t="shared" si="0"/>
         <v>California2002</v>
@@ -11012,7 +11017,7 @@
         <v>32996</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Colorado2002</v>
@@ -11038,7 +11043,7 @@
         <v>33276</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Connecticut2002</v>
@@ -11064,7 +11069,7 @@
         <v>42706</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="str">
         <f t="shared" si="0"/>
         <v>D.C.2002</v>
@@ -11090,7 +11095,7 @@
         <v>NO INCOME DATA</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Delaware2002</v>
@@ -11116,7 +11121,7 @@
         <v>42120</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Florida2002</v>
@@ -11142,7 +11147,7 @@
         <v>29596</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Georgia2002</v>
@@ -11168,7 +11173,7 @@
         <v>28821</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Hawaii2002</v>
@@ -11194,7 +11199,7 @@
         <v>30001</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Idaho2002</v>
@@ -11220,7 +11225,7 @@
         <v>25057</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Illinois2002</v>
@@ -11246,7 +11251,7 @@
         <v>33404</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="str">
         <f t="shared" ref="A67:A130" si="1">B67&amp;C67</f>
         <v>Indiana2002</v>
@@ -11272,7 +11277,7 @@
         <v>28240</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Iowa2002</v>
@@ -11298,7 +11303,7 @@
         <v>28280</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Kansas2002</v>
@@ -11324,7 +11329,7 @@
         <v>29141</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Kentucky2002</v>
@@ -11350,7 +11355,7 @@
         <v>NO INCOME DATA</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Louisiana2002</v>
@@ -11376,7 +11381,7 @@
         <v>25446</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Maine2002</v>
@@ -11402,7 +11407,7 @@
         <v>27744</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Maryland2002</v>
@@ -11428,7 +11433,7 @@
         <v>NO INCOME DATA</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Massachusetts2002</v>
@@ -11454,7 +11459,7 @@
         <v>39244</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Michigan2002</v>
@@ -11480,7 +11485,7 @@
         <v>30296</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Minnesota2002</v>
@@ -11506,7 +11511,7 @@
         <v>34071</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Mississippi2002</v>
@@ -11532,7 +11537,7 @@
         <v>22372</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Missouri2002</v>
@@ -11558,7 +11563,7 @@
         <v>28936</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Montana2002</v>
@@ -11584,7 +11589,7 @@
         <v>25020</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Nebraska2002</v>
@@ -11610,7 +11615,7 @@
         <v>29771</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Nevada2002</v>
@@ -11636,7 +11641,7 @@
         <v>30180</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="str">
         <f t="shared" si="1"/>
         <v>New Hampshire2002</v>
@@ -11662,7 +11667,7 @@
         <v>34334</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="str">
         <f t="shared" si="1"/>
         <v>New Jersey2002</v>
@@ -11688,7 +11693,7 @@
         <v>39453</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="str">
         <f t="shared" si="1"/>
         <v>New Mexico2002</v>
@@ -11714,7 +11719,7 @@
         <v>23941</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="str">
         <f t="shared" si="1"/>
         <v>New York2002</v>
@@ -11740,7 +11745,7 @@
         <v>36043</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="str">
         <f t="shared" si="1"/>
         <v>North Carolina2002</v>
@@ -11766,7 +11771,7 @@
         <v>27711</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="str">
         <f t="shared" si="1"/>
         <v>North Dakota2002</v>
@@ -11792,7 +11797,7 @@
         <v>26982</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Ohio2002</v>
@@ -11818,7 +11823,7 @@
         <v>29405</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Oklahoma2002</v>
@@ -11844,7 +11849,7 @@
         <v>25575</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Oregon2002</v>
@@ -11870,7 +11875,7 @@
         <v>28731</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Pennsylvania2002</v>
@@ -11896,7 +11901,7 @@
         <v>31727</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Rhode Island2002</v>
@@ -11922,7 +11927,7 @@
         <v>31319</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="str">
         <f t="shared" si="1"/>
         <v>South Carolina2002</v>
@@ -11948,7 +11953,7 @@
         <v>25400</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="str">
         <f t="shared" si="1"/>
         <v>South Dakota2002</v>
@@ -11974,7 +11979,7 @@
         <v>26894</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Tennessee2002</v>
@@ -12000,7 +12005,7 @@
         <v>27671</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Texas2002</v>
@@ -12026,7 +12031,7 @@
         <v>28551</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Utah2002</v>
@@ -12052,7 +12057,7 @@
         <v>24306</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Vermont2002</v>
@@ -12078,7 +12083,7 @@
         <v>29567</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Virginia2002</v>
@@ -12104,7 +12109,7 @@
         <v>32922</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Washington2002</v>
@@ -12130,7 +12135,7 @@
         <v>32677</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="str">
         <f t="shared" si="1"/>
         <v>West Virginia2002</v>
@@ -12156,7 +12161,7 @@
         <v>23688</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Wisconsin2002</v>
@@ -12182,7 +12187,7 @@
         <v>29923</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Wyoming2002</v>
@@ -12208,7 +12213,7 @@
         <v>30578</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Alabama2003</v>
@@ -12234,7 +12239,7 @@
         <v>26338</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Alaska2003</v>
@@ -12260,7 +12265,7 @@
         <v>33568</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Arizona2003</v>
@@ -12286,7 +12291,7 @@
         <v>26838</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Arkansas2003</v>
@@ -12312,7 +12317,7 @@
         <v>24289</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="str">
         <f t="shared" si="1"/>
         <v>California2003</v>
@@ -12338,7 +12343,7 @@
         <v>33749</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Colorado2003</v>
@@ -12364,7 +12369,7 @@
         <v>34283</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Connecticut2003</v>
@@ -12390,7 +12395,7 @@
         <v>43173</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="str">
         <f t="shared" si="1"/>
         <v>D.C.2003</v>
@@ -12416,7 +12421,7 @@
         <v>NO INCOME DATA</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Delaware2003</v>
@@ -12442,7 +12447,7 @@
         <v>48342</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Florida2003</v>
@@ -12468,7 +12473,7 @@
         <v>30446</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Georgia2003</v>
@@ -12494,7 +12499,7 @@
         <v>29442</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Hawaii2003</v>
@@ -12520,7 +12525,7 @@
         <v>30913</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Idaho2003</v>
@@ -12546,7 +12551,7 @@
         <v>NO INCOME DATA</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Illinois2003</v>
@@ -12572,7 +12577,7 @@
         <v>NO INCOME DATA</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Indiana2003</v>
@@ -12598,7 +12603,7 @@
         <v>28783</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Iowa2003</v>
@@ -12624,7 +12629,7 @@
         <v>29043</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Kansas2003</v>
@@ -12650,7 +12655,7 @@
         <v>29935</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Kentucky2003</v>
@@ -12676,7 +12681,7 @@
         <v>26252</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Louisiana2003</v>
@@ -12702,7 +12707,7 @@
         <v>26100</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Maine2003</v>
@@ -12728,7 +12733,7 @@
         <v>28831</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Maryland2003</v>
@@ -12754,7 +12759,7 @@
         <v>37331</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Massachusetts2003</v>
@@ -12780,7 +12785,7 @@
         <v>39815</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Michigan2003</v>
@@ -12806,7 +12811,7 @@
         <v>30439</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Minnesota2003</v>
@@ -12832,7 +12837,7 @@
         <v>34443</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Mississippi2003</v>
@@ -12858,7 +12863,7 @@
         <v>23448</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Missouri2003</v>
@@ -12884,7 +12889,7 @@
         <v>29252</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Montana2003</v>
@@ -12910,7 +12915,7 @@
         <v>25920</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="str">
         <f t="shared" ref="A131:A194" si="2">B131&amp;C131</f>
         <v>Nebraska2003</v>
@@ -12936,7 +12941,7 @@
         <v>30758</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Nevada2003</v>
@@ -12962,7 +12967,7 @@
         <v>31266</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="str">
         <f t="shared" si="2"/>
         <v>New Hampshire2003</v>
@@ -12988,7 +12993,7 @@
         <v>34702</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="str">
         <f t="shared" si="2"/>
         <v>New Jersey2003</v>
@@ -13014,7 +13019,7 @@
         <v>40427</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="str">
         <f t="shared" si="2"/>
         <v>New Mexico2003</v>
@@ -13040,7 +13045,7 @@
         <v>25541</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="str">
         <f t="shared" si="2"/>
         <v>New York2003</v>
@@ -13066,7 +13071,7 @@
         <v>36574</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="str">
         <f t="shared" si="2"/>
         <v>North Carolina2003</v>
@@ -13092,7 +13097,7 @@
         <v>28235</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="str">
         <f t="shared" si="2"/>
         <v>North Dakota2003</v>
@@ -13118,7 +13123,7 @@
         <v>29204</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Ohio2003</v>
@@ -13144,7 +13149,7 @@
         <v>29944</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Oklahoma2003</v>
@@ -13170,7 +13175,7 @@
         <v>26656</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Oregon2003</v>
@@ -13196,7 +13201,7 @@
         <v>29340</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Pennsylvania2003</v>
@@ -13222,7 +13227,7 @@
         <v>31998</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Rhode Island2003</v>
@@ -13248,7 +13253,7 @@
         <v>31916</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="str">
         <f t="shared" si="2"/>
         <v>South Carolina2003</v>
@@ -13274,7 +13279,7 @@
         <v>26132</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="str">
         <f t="shared" si="2"/>
         <v>South Dakota2003</v>
@@ -13300,7 +13305,7 @@
         <v>29234</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Tennessee2003</v>
@@ -13326,7 +13331,7 @@
         <v>28455</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Texas2003</v>
@@ -13352,7 +13357,7 @@
         <v>29372</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Utah2003</v>
@@ -13378,7 +13383,7 @@
         <v>24977</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Vermont2003</v>
@@ -13404,7 +13409,7 @@
         <v>30740</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Virginia2003</v>
@@ -13430,7 +13435,7 @@
         <v>33671</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Washington2003</v>
@@ -13456,7 +13461,7 @@
         <v>33332</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="str">
         <f t="shared" si="2"/>
         <v>West Virginia2003</v>
@@ -13482,7 +13487,7 @@
         <v>24379</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Wisconsin2003</v>
@@ -13508,7 +13513,7 @@
         <v>30898</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Wyoming2003</v>
@@ -13534,7 +13539,7 @@
         <v>32808</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Alabama2004</v>
@@ -13560,7 +13565,7 @@
         <v>29136</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Alaska2004</v>
@@ -13586,7 +13591,7 @@
         <v>35612</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Arizona2004</v>
@@ -13612,7 +13617,7 @@
         <v>30267</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Arkansas2004</v>
@@ -13638,7 +13643,7 @@
         <v>26874</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="str">
         <f t="shared" si="2"/>
         <v>California2004</v>
@@ -13664,7 +13669,7 @@
         <v>37036</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Colorado2004</v>
@@ -13690,7 +13695,7 @@
         <v>37946</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Connecticut2004</v>
@@ -13716,7 +13721,7 @@
         <v>47819</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="str">
         <f t="shared" si="2"/>
         <v>D.C.2004</v>
@@ -13742,7 +13747,7 @@
         <v>37065</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Delaware2004</v>
@@ -13768,7 +13773,7 @@
         <v>54985</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Florida2004</v>
@@ -13794,7 +13799,7 @@
         <v>33219</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Georgia2004</v>
@@ -13820,7 +13825,7 @@
         <v>31121</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Hawaii2004</v>
@@ -13846,7 +13851,7 @@
         <v>34539</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Idaho2004</v>
@@ -13872,7 +13877,7 @@
         <v>28158</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Illinois2004</v>
@@ -13898,7 +13903,7 @@
         <v>36120</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Indiana2004</v>
@@ -13924,7 +13929,7 @@
         <v>31276</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Iowa2004</v>
@@ -13950,7 +13955,7 @@
         <v>32315</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Kansas2004</v>
@@ -13976,7 +13981,7 @@
         <v>32836</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Kentucky2004</v>
@@ -14002,7 +14007,7 @@
         <v>28513</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Louisiana2004</v>
@@ -14028,7 +14033,7 @@
         <v>24820</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Maine2004</v>
@@ -14054,7 +14059,7 @@
         <v>31252</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Maryland2004</v>
@@ -14080,7 +14085,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Massachusetts2004</v>
@@ -14106,7 +14111,7 @@
         <v>44289</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Michigan2004</v>
@@ -14132,7 +14137,7 @@
         <v>33116</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Minnesota2004</v>
@@ -14158,7 +14163,7 @@
         <v>37373</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Mississippi2004</v>
@@ -14184,7 +14189,7 @@
         <v>25318</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Missouri2004</v>
@@ -14210,7 +14215,7 @@
         <v>31899</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Montana2004</v>
@@ -14236,7 +14241,7 @@
         <v>29387</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Nebraska2004</v>
@@ -14262,7 +14267,7 @@
         <v>33616</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Nevada2004</v>
@@ -14288,7 +14293,7 @@
         <v>NO INCOME DATA</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="str">
         <f t="shared" si="2"/>
         <v>New Hampshire2004</v>
@@ -14314,7 +14319,7 @@
         <v>38408</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="str">
         <f t="shared" si="2"/>
         <v>New Jersey2004</v>
@@ -14340,7 +14345,7 @@
         <v>NO INCOME DATA</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="str">
         <f t="shared" si="2"/>
         <v>New Mexico2004</v>
@@ -14366,7 +14371,7 @@
         <v>27644</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="str">
         <f t="shared" si="2"/>
         <v>New York2004</v>
@@ -14392,7 +14397,7 @@
         <v>NO INCOME DATA</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="str">
         <f t="shared" si="2"/>
         <v>North Carolina2004</v>
@@ -14418,7 +14423,7 @@
         <v>30553</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="str">
         <f t="shared" si="2"/>
         <v>North Dakota2004</v>
@@ -14444,7 +14449,7 @@
         <v>31395</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Ohio2004</v>
@@ -14470,7 +14475,7 @@
         <v>32478</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Oklahoma2004</v>
@@ -14496,7 +14501,7 @@
         <v>29330</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Oregon2004</v>
@@ -14522,7 +14527,7 @@
         <v>32103</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Pennsylvania2004</v>
@@ -14548,7 +14553,7 @@
         <v>34897</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Rhode Island2004</v>
@@ -14574,7 +14579,7 @@
         <v>36153</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="str">
         <f t="shared" ref="A195:A205" si="3">B195&amp;C195</f>
         <v>South Carolina2004</v>
@@ -14600,7 +14605,7 @@
         <v>28352</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="str">
         <f t="shared" si="3"/>
         <v>South Dakota2004</v>
@@ -14626,7 +14631,7 @@
         <v>31614</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Tennessee2004</v>
@@ -14652,7 +14657,7 @@
         <v>31107</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Texas2004</v>
@@ -14678,7 +14683,7 @@
         <v>32462</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Utah2004</v>
@@ -14704,7 +14709,7 @@
         <v>NO INCOME DATA</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Vermont2004</v>
@@ -14730,7 +14735,7 @@
         <v>33327</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Virginia2004</v>
@@ -14756,7 +14761,7 @@
         <v>38390</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Washington2004</v>
@@ -14782,7 +14787,7 @@
         <v>35409</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="str">
         <f t="shared" si="3"/>
         <v>West Virginia2004</v>
@@ -14808,7 +14813,7 @@
         <v>27215</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Wisconsin2004</v>
@@ -14834,7 +14839,7 @@
         <v>33565</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Wyoming2004</v>
@@ -14880,13 +14885,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -14894,7 +14899,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -14902,7 +14907,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -14910,7 +14915,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -14918,7 +14923,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -14926,7 +14931,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -14934,7 +14939,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -14942,7 +14947,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -14950,7 +14955,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -14958,7 +14963,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -14966,7 +14971,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -14974,7 +14979,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -14982,7 +14987,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -14990,7 +14995,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -14998,7 +15003,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -15006,7 +15011,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -15014,7 +15019,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -15022,7 +15027,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -15030,7 +15035,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -15038,7 +15043,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -15046,7 +15051,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -15054,7 +15059,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -15062,7 +15067,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -15070,7 +15075,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -15078,7 +15083,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -15086,7 +15091,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -15094,7 +15099,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
@@ -15102,7 +15107,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -15110,7 +15115,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
@@ -15118,7 +15123,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
@@ -15126,7 +15131,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
@@ -15134,7 +15139,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
@@ -15142,7 +15147,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
@@ -15150,7 +15155,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
@@ -15158,7 +15163,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
@@ -15166,7 +15171,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
@@ -15174,7 +15179,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -15182,7 +15187,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -15190,7 +15195,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
@@ -15198,7 +15203,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
@@ -15206,7 +15211,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
@@ -15214,7 +15219,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
@@ -15222,7 +15227,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
@@ -15230,7 +15235,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
@@ -15238,7 +15243,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
@@ -15246,7 +15251,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>48</v>
       </c>
@@ -15254,7 +15259,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>49</v>
       </c>
@@ -15262,7 +15267,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
@@ -15270,7 +15275,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
@@ -15278,7 +15283,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
@@ -15286,7 +15291,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
@@ -15294,7 +15299,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>54</v>
       </c>
@@ -15321,14 +15326,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="1" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>204</v>
       </c>
@@ -15342,7 +15347,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>B2&amp;C2</f>
         <v>Alabama2001</v>
@@ -15357,7 +15362,7 @@
         <v>24477</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="0">B3&amp;C3</f>
         <v>Alaska2001</v>
@@ -15372,7 +15377,7 @@
         <v>31027</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Arizona2001</v>
@@ -15387,7 +15392,7 @@
         <v>25878</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Arkansas2001</v>
@@ -15402,7 +15407,7 @@
         <v>22750</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>California2001</v>
@@ -15417,7 +15422,7 @@
         <v>32655</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Colorado2001</v>
@@ -15432,7 +15437,7 @@
         <v>33455</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>D.C.2001</v>
@@ -15447,7 +15452,7 @@
         <v>32166</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Delaware2001</v>
@@ -15462,7 +15467,7 @@
         <v>40539</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Florida2001</v>
@@ -15477,7 +15482,7 @@
         <v>29048</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Georgia2001</v>
@@ -15492,7 +15497,7 @@
         <v>28523</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Hawaii2001</v>
@@ -15507,7 +15512,7 @@
         <v>29034</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Idaho2001</v>
@@ -15522,7 +15527,7 @@
         <v>24506</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Indiana2001</v>
@@ -15537,7 +15542,7 @@
         <v>27522</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Iowa2001</v>
@@ -15552,7 +15557,7 @@
         <v>27225</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Kansas2001</v>
@@ -15567,7 +15572,7 @@
         <v>28432</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Maryland2001</v>
@@ -15582,7 +15587,7 @@
         <v>35279</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Massachusetts2001</v>
@@ -15597,7 +15602,7 @@
         <v>38864</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Michigan2001</v>
@@ -15612,7 +15617,7 @@
         <v>29629</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Minnesota2001</v>
@@ -15627,7 +15632,7 @@
         <v>33059</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Mississippi2001</v>
@@ -15642,7 +15647,7 @@
         <v>21653</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Missouri2001</v>
@@ -15657,7 +15662,7 @@
         <v>28221</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Montana2001</v>
@@ -15672,7 +15677,7 @@
         <v>24044</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Nebraska2001</v>
@@ -15687,7 +15692,7 @@
         <v>28861</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Nevada2001</v>
@@ -15702,7 +15707,7 @@
         <v>30128</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>New Hampshire2001</v>
@@ -15717,7 +15722,7 @@
         <v>33969</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>New Jersey2001</v>
@@ -15732,7 +15737,7 @@
         <v>38625</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>New Mexico2001</v>
@@ -15747,7 +15752,7 @@
         <v>23081</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>New York2001</v>
@@ -15762,7 +15767,7 @@
         <v>35878</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>North Carolina2001</v>
@@ -15777,7 +15782,7 @@
         <v>27308</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>North Dakota2001</v>
@@ -15792,7 +15797,7 @@
         <v>25798</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Ohio2001</v>
@@ -15807,7 +15812,7 @@
         <v>28699</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>Oklahoma2001</v>
@@ -15822,7 +15827,7 @@
         <v>24945</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>Oregon2001</v>
@@ -15837,7 +15842,7 @@
         <v>28222</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>Pennsylvania2001</v>
@@ -15852,7 +15857,7 @@
         <v>30752</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>Rhode Island2001</v>
@@ -15867,7 +15872,7 @@
         <v>30256</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>South Carolina2001</v>
@@ -15882,7 +15887,7 @@
         <v>24840</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>South Dakota2001</v>
@@ -15897,7 +15902,7 @@
         <v>26566</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>Tennessee2001</v>
@@ -15912,7 +15917,7 @@
         <v>26808</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>Texas2001</v>
@@ -15927,7 +15932,7 @@
         <v>28472</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>Utah2001</v>
@@ -15942,7 +15947,7 @@
         <v>24033</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>Vermont2001</v>
@@ -15957,7 +15962,7 @@
         <v>28756</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>Virginia2001</v>
@@ -15972,7 +15977,7 @@
         <v>32338</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>Washington2001</v>
@@ -15987,7 +15992,7 @@
         <v>31976</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>West Virginia2001</v>
@@ -16002,7 +16007,7 @@
         <v>22862</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>Wisconsin2001</v>
@@ -16017,7 +16022,7 @@
         <v>29196</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>Wyoming2001</v>
@@ -16032,7 +16037,7 @@
         <v>29587</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>Alabama2002</v>
@@ -16047,7 +16052,7 @@
         <v>25128</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>Alaska2002</v>
@@ -16062,7 +16067,7 @@
         <v>32151</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>Arizona2002</v>
@@ -16077,7 +16082,7 @@
         <v>26183</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>Arkansas2002</v>
@@ -16092,7 +16097,7 @@
         <v>23512</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>California2002</v>
@@ -16107,7 +16112,7 @@
         <v>32996</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>Colorado2002</v>
@@ -16122,7 +16127,7 @@
         <v>33276</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>Connecticut2002</v>
@@ -16137,7 +16142,7 @@
         <v>42706</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>Delaware2002</v>
@@ -16152,7 +16157,7 @@
         <v>42120</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>Florida2002</v>
@@ -16167,7 +16172,7 @@
         <v>29596</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>Georgia2002</v>
@@ -16182,7 +16187,7 @@
         <v>28821</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>Hawaii2002</v>
@@ -16197,7 +16202,7 @@
         <v>30001</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>Idaho2002</v>
@@ -16212,7 +16217,7 @@
         <v>25057</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>Illinois2002</v>
@@ -16227,7 +16232,7 @@
         <v>33404</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>Indiana2002</v>
@@ -16242,7 +16247,7 @@
         <v>28240</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>Iowa2002</v>
@@ -16257,7 +16262,7 @@
         <v>28280</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>Kansas2002</v>
@@ -16272,7 +16277,7 @@
         <v>29141</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>Louisiana2002</v>
@@ -16287,7 +16292,7 @@
         <v>25446</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>Maine2002</v>
@@ -16302,7 +16307,7 @@
         <v>27744</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>Massachusetts2002</v>
@@ -16317,7 +16322,7 @@
         <v>39244</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A130" si="1">B67&amp;C67</f>
         <v>Michigan2002</v>
@@ -16332,7 +16337,7 @@
         <v>30296</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
         <v>Minnesota2002</v>
@@ -16347,7 +16352,7 @@
         <v>34071</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>Mississippi2002</v>
@@ -16362,7 +16367,7 @@
         <v>22372</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>Missouri2002</v>
@@ -16377,7 +16382,7 @@
         <v>28936</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>Montana2002</v>
@@ -16392,7 +16397,7 @@
         <v>25020</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>Nebraska2002</v>
@@ -16407,7 +16412,7 @@
         <v>29771</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>Nevada2002</v>
@@ -16422,7 +16427,7 @@
         <v>30180</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>New Hampshire2002</v>
@@ -16437,7 +16442,7 @@
         <v>34334</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>New Jersey2002</v>
@@ -16452,7 +16457,7 @@
         <v>39453</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>New Mexico2002</v>
@@ -16467,7 +16472,7 @@
         <v>23941</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>New York2002</v>
@@ -16482,7 +16487,7 @@
         <v>36043</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>North Carolina2002</v>
@@ -16497,7 +16502,7 @@
         <v>27711</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>North Dakota2002</v>
@@ -16512,7 +16517,7 @@
         <v>26982</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>Ohio2002</v>
@@ -16527,7 +16532,7 @@
         <v>29405</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>Oklahoma2002</v>
@@ -16542,7 +16547,7 @@
         <v>25575</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>Oregon2002</v>
@@ -16557,7 +16562,7 @@
         <v>28731</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v>Pennsylvania2002</v>
@@ -16572,7 +16577,7 @@
         <v>31727</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v>Rhode Island2002</v>
@@ -16587,7 +16592,7 @@
         <v>31319</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v>South Carolina2002</v>
@@ -16602,7 +16607,7 @@
         <v>25400</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
         <v>South Dakota2002</v>
@@ -16617,7 +16622,7 @@
         <v>26894</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
         <v>Tennessee2002</v>
@@ -16632,7 +16637,7 @@
         <v>27671</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
         <v>Texas2002</v>
@@ -16647,7 +16652,7 @@
         <v>28551</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
         <v>Utah2002</v>
@@ -16662,7 +16667,7 @@
         <v>24306</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
         <v>Vermont2002</v>
@@ -16677,7 +16682,7 @@
         <v>29567</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
         <v>Virginia2002</v>
@@ -16692,7 +16697,7 @@
         <v>32922</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
         <v>Washington2002</v>
@@ -16707,7 +16712,7 @@
         <v>32677</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
         <v>West Virginia2002</v>
@@ -16722,7 +16727,7 @@
         <v>23688</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
         <v>Wisconsin2002</v>
@@ -16737,7 +16742,7 @@
         <v>29923</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
         <v>Wyoming2002</v>
@@ -16752,7 +16757,7 @@
         <v>30578</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
         <v>Alabama2003</v>
@@ -16767,7 +16772,7 @@
         <v>26338</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
         <v>Alaska2003</v>
@@ -16782,7 +16787,7 @@
         <v>33568</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
         <v>Arizona2003</v>
@@ -16797,7 +16802,7 @@
         <v>26838</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
         <v>Arkansas2003</v>
@@ -16812,7 +16817,7 @@
         <v>24289</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
         <v>California2003</v>
@@ -16827,7 +16832,7 @@
         <v>33749</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
         <v>Colorado2003</v>
@@ -16842,7 +16847,7 @@
         <v>34283</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
         <v>Connecticut2003</v>
@@ -16857,7 +16862,7 @@
         <v>43173</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
         <v>Delaware2003</v>
@@ -16872,7 +16877,7 @@
         <v>48342</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
         <v>Florida2003</v>
@@ -16887,7 +16892,7 @@
         <v>30446</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
         <v>Georgia2003</v>
@@ -16902,7 +16907,7 @@
         <v>29442</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
         <v>Hawaii2003</v>
@@ -16917,7 +16922,7 @@
         <v>30913</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
         <v>Indiana2003</v>
@@ -16932,7 +16937,7 @@
         <v>28783</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
         <v>Iowa2003</v>
@@ -16947,7 +16952,7 @@
         <v>29043</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
         <v>Kansas2003</v>
@@ -16962,7 +16967,7 @@
         <v>29935</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
         <v>Kentucky2003</v>
@@ -16977,7 +16982,7 @@
         <v>26252</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
         <v>Louisiana2003</v>
@@ -16992,7 +16997,7 @@
         <v>26100</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
         <v>Maine2003</v>
@@ -17007,7 +17012,7 @@
         <v>28831</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
         <v>Maryland2003</v>
@@ -17022,7 +17027,7 @@
         <v>37331</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
         <v>Massachusetts2003</v>
@@ -17037,7 +17042,7 @@
         <v>39815</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
         <v>Michigan2003</v>
@@ -17052,7 +17057,7 @@
         <v>30439</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
         <v>Minnesota2003</v>
@@ -17067,7 +17072,7 @@
         <v>34443</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
         <v>Mississippi2003</v>
@@ -17082,7 +17087,7 @@
         <v>23448</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
         <v>Missouri2003</v>
@@ -17097,7 +17102,7 @@
         <v>29252</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
         <v>Montana2003</v>
@@ -17112,7 +17117,7 @@
         <v>25920</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
         <v>Nebraska2003</v>
@@ -17127,7 +17132,7 @@
         <v>30758</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
         <v>Nevada2003</v>
@@ -17142,7 +17147,7 @@
         <v>31266</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
         <v>New Hampshire2003</v>
@@ -17157,7 +17162,7 @@
         <v>34702</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
         <v>New Jersey2003</v>
@@ -17172,7 +17177,7 @@
         <v>40427</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
         <v>New Mexico2003</v>
@@ -17187,7 +17192,7 @@
         <v>25541</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
         <v>New York2003</v>
@@ -17202,7 +17207,7 @@
         <v>36574</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
         <v>North Carolina2003</v>
@@ -17217,7 +17222,7 @@
         <v>28235</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
         <v>North Dakota2003</v>
@@ -17232,7 +17237,7 @@
         <v>29204</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
         <v>Ohio2003</v>
@@ -17247,7 +17252,7 @@
         <v>29944</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
         <v>Oklahoma2003</v>
@@ -17262,7 +17267,7 @@
         <v>26656</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f t="shared" si="1"/>
         <v>Oregon2003</v>
@@ -17277,7 +17282,7 @@
         <v>29340</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f t="shared" ref="A131:A190" si="2">B131&amp;C131</f>
         <v>Pennsylvania2003</v>
@@ -17292,7 +17297,7 @@
         <v>31998</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
         <v>Rhode Island2003</v>
@@ -17307,7 +17312,7 @@
         <v>31916</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
         <v>South Carolina2003</v>
@@ -17322,7 +17327,7 @@
         <v>26132</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
         <v>South Dakota2003</v>
@@ -17337,7 +17342,7 @@
         <v>29234</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
         <v>Tennessee2003</v>
@@ -17352,7 +17357,7 @@
         <v>28455</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
         <v>Texas2003</v>
@@ -17367,7 +17372,7 @@
         <v>29372</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
         <v>Utah2003</v>
@@ -17382,7 +17387,7 @@
         <v>24977</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
         <v>Vermont2003</v>
@@ -17397,7 +17402,7 @@
         <v>30740</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
         <v>Virginia2003</v>
@@ -17412,7 +17417,7 @@
         <v>33671</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
         <v>Washington2003</v>
@@ -17427,7 +17432,7 @@
         <v>33332</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
         <v>West Virginia2003</v>
@@ -17442,7 +17447,7 @@
         <v>24379</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
         <v>Wisconsin2003</v>
@@ -17457,7 +17462,7 @@
         <v>30898</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
         <v>Wyoming2003</v>
@@ -17472,7 +17477,7 @@
         <v>32808</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
         <v>Alabama2004</v>
@@ -17487,7 +17492,7 @@
         <v>29136</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
         <v>Alaska2004</v>
@@ -17502,7 +17507,7 @@
         <v>35612</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
         <v>Arizona2004</v>
@@ -17517,7 +17522,7 @@
         <v>30267</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f t="shared" si="2"/>
         <v>Arkansas2004</v>
@@ -17532,7 +17537,7 @@
         <v>26874</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f t="shared" si="2"/>
         <v>California2004</v>
@@ -17547,7 +17552,7 @@
         <v>37036</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f t="shared" si="2"/>
         <v>Colorado2004</v>
@@ -17562,7 +17567,7 @@
         <v>37946</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f t="shared" si="2"/>
         <v>Connecticut2004</v>
@@ -17577,7 +17582,7 @@
         <v>47819</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f t="shared" si="2"/>
         <v>D.C.2004</v>
@@ -17592,7 +17597,7 @@
         <v>37065</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f t="shared" si="2"/>
         <v>Delaware2004</v>
@@ -17607,7 +17612,7 @@
         <v>54985</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f t="shared" si="2"/>
         <v>Florida2004</v>
@@ -17622,7 +17627,7 @@
         <v>33219</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f t="shared" si="2"/>
         <v>Georgia2004</v>
@@ -17637,7 +17642,7 @@
         <v>31121</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f t="shared" si="2"/>
         <v>Hawaii2004</v>
@@ -17652,7 +17657,7 @@
         <v>34539</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f t="shared" si="2"/>
         <v>Idaho2004</v>
@@ -17667,7 +17672,7 @@
         <v>28158</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f t="shared" si="2"/>
         <v>Illinois2004</v>
@@ -17682,7 +17687,7 @@
         <v>36120</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f t="shared" si="2"/>
         <v>Indiana2004</v>
@@ -17697,7 +17702,7 @@
         <v>31276</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f t="shared" si="2"/>
         <v>Iowa2004</v>
@@ -17712,7 +17717,7 @@
         <v>32315</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f t="shared" si="2"/>
         <v>Kansas2004</v>
@@ -17727,7 +17732,7 @@
         <v>32836</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f t="shared" si="2"/>
         <v>Kentucky2004</v>
@@ -17742,7 +17747,7 @@
         <v>28513</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <f t="shared" si="2"/>
         <v>Louisiana2004</v>
@@ -17757,7 +17762,7 @@
         <v>24820</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <f t="shared" si="2"/>
         <v>Maine2004</v>
@@ -17772,7 +17777,7 @@
         <v>31252</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <f t="shared" si="2"/>
         <v>Maryland2004</v>
@@ -17787,7 +17792,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f t="shared" si="2"/>
         <v>Massachusetts2004</v>
@@ -17802,7 +17807,7 @@
         <v>44289</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <f t="shared" si="2"/>
         <v>Michigan2004</v>
@@ -17817,7 +17822,7 @@
         <v>33116</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f t="shared" si="2"/>
         <v>Minnesota2004</v>
@@ -17832,7 +17837,7 @@
         <v>37373</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f t="shared" si="2"/>
         <v>Mississippi2004</v>
@@ -17847,7 +17852,7 @@
         <v>25318</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f t="shared" si="2"/>
         <v>Missouri2004</v>
@@ -17862,7 +17867,7 @@
         <v>31899</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
         <f t="shared" si="2"/>
         <v>Montana2004</v>
@@ -17877,7 +17882,7 @@
         <v>29387</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
         <f t="shared" si="2"/>
         <v>Nebraska2004</v>
@@ -17892,7 +17897,7 @@
         <v>33616</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <f t="shared" si="2"/>
         <v>New Hampshire2004</v>
@@ -17907,7 +17912,7 @@
         <v>38408</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
         <f t="shared" si="2"/>
         <v>New Mexico2004</v>
@@ -17922,7 +17927,7 @@
         <v>27644</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <f t="shared" si="2"/>
         <v>North Carolina2004</v>
@@ -17937,7 +17942,7 @@
         <v>30553</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
         <f t="shared" si="2"/>
         <v>North Dakota2004</v>
@@ -17952,7 +17957,7 @@
         <v>31395</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
         <f t="shared" si="2"/>
         <v>Ohio2004</v>
@@ -17967,7 +17972,7 @@
         <v>32478</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
         <f t="shared" si="2"/>
         <v>Oklahoma2004</v>
@@ -17982,7 +17987,7 @@
         <v>29330</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
         <f t="shared" si="2"/>
         <v>Oregon2004</v>
@@ -17997,7 +18002,7 @@
         <v>32103</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
         <f t="shared" si="2"/>
         <v>Pennsylvania2004</v>
@@ -18012,7 +18017,7 @@
         <v>34897</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
         <f t="shared" si="2"/>
         <v>Rhode Island2004</v>
@@ -18027,7 +18032,7 @@
         <v>36153</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
         <f t="shared" si="2"/>
         <v>South Carolina2004</v>
@@ -18042,7 +18047,7 @@
         <v>28352</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
         <f t="shared" si="2"/>
         <v>South Dakota2004</v>
@@ -18057,7 +18062,7 @@
         <v>31614</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
         <f t="shared" si="2"/>
         <v>Tennessee2004</v>
@@ -18072,7 +18077,7 @@
         <v>31107</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
         <f t="shared" si="2"/>
         <v>Texas2004</v>
@@ -18087,7 +18092,7 @@
         <v>32462</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
         <f t="shared" si="2"/>
         <v>Vermont2004</v>
@@ -18102,7 +18107,7 @@
         <v>33327</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
         <f t="shared" si="2"/>
         <v>Virginia2004</v>
@@ -18117,7 +18122,7 @@
         <v>38390</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
         <f t="shared" si="2"/>
         <v>Washington2004</v>
@@ -18132,7 +18137,7 @@
         <v>35409</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
         <f t="shared" si="2"/>
         <v>West Virginia2004</v>
@@ -18147,7 +18152,7 @@
         <v>27215</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
         <f t="shared" si="2"/>
         <v>Wisconsin2004</v>
@@ -18162,7 +18167,7 @@
         <v>33565</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
         <f t="shared" si="2"/>
         <v>Wyoming2004</v>
@@ -18196,15 +18201,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" style="62" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="62" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
@@ -18218,7 +18223,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2000</v>
       </c>
@@ -18238,7 +18243,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2001</v>
       </c>
@@ -18258,7 +18263,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2002</v>
       </c>
@@ -18272,7 +18277,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2003</v>
       </c>
@@ -18293,7 +18298,7 @@
         <v>31634</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2004</v>
       </c>
@@ -18307,7 +18312,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2005</v>
       </c>
@@ -18321,7 +18326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2006</v>
       </c>
@@ -18335,7 +18340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2007</v>
       </c>
@@ -18349,7 +18354,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2008</v>
       </c>
@@ -18363,7 +18368,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2009</v>
       </c>
@@ -18377,7 +18382,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2010</v>
       </c>
@@ -18391,7 +18396,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2011</v>
       </c>
@@ -18405,7 +18410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2012</v>
       </c>
@@ -18419,7 +18424,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2013</v>
       </c>
@@ -18433,7 +18438,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2014</v>
       </c>
@@ -18447,7 +18452,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2015</v>
       </c>
@@ -18461,7 +18466,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2016</v>
       </c>
@@ -18503,15 +18508,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="44" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="44" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>126</v>
       </c>
@@ -18520,7 +18525,7 @@
       </c>
       <c r="D1" s="30"/>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43">
         <v>42370</v>
       </c>
@@ -18535,7 +18540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43">
         <v>42371</v>
       </c>
@@ -18544,7 +18549,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="43">
         <v>42372</v>
       </c>
@@ -18559,7 +18564,7 @@
         <v>42389</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="43">
         <v>42373</v>
       </c>
@@ -18568,7 +18573,7 @@
       </c>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="43">
         <v>42374</v>
       </c>
@@ -18583,7 +18588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="43">
         <v>42375</v>
       </c>
@@ -18592,7 +18597,7 @@
       </c>
       <c r="D7" s="45"/>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="43">
         <v>42376</v>
       </c>
@@ -18607,7 +18612,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="43">
         <v>42377</v>
       </c>
@@ -18617,7 +18622,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="45"/>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="43">
         <v>42378</v>
       </c>
@@ -18632,7 +18637,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="43">
         <v>42379</v>
       </c>
@@ -18641,7 +18646,7 @@
       </c>
       <c r="D11" s="17"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="43">
         <v>42380</v>
       </c>
@@ -18649,7 +18654,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="43">
         <v>42381</v>
       </c>
@@ -18657,7 +18662,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="43">
         <v>42382</v>
       </c>
@@ -18665,7 +18670,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="43">
         <v>42383</v>
       </c>
@@ -18673,7 +18678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="43">
         <v>42384</v>
       </c>
@@ -18681,7 +18686,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="43">
         <v>42385</v>
       </c>
@@ -18689,7 +18694,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="43">
         <v>42386</v>
       </c>
@@ -18697,7 +18702,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="43">
         <v>42387</v>
       </c>
@@ -18705,7 +18710,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="43">
         <v>42388</v>
       </c>
@@ -18713,7 +18718,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="43">
         <v>42389</v>
       </c>
@@ -18737,19 +18742,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="25.5546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>177</v>
       </c>
@@ -18775,7 +18780,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>188</v>
       </c>
@@ -18808,7 +18813,7 @@
         <v>BOS</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>189</v>
       </c>
@@ -18841,7 +18846,7 @@
         <v>NYC</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>190</v>
       </c>
@@ -18874,7 +18879,7 @@
         <v>BOS</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>191</v>
       </c>
@@ -18907,7 +18912,7 @@
         <v>CHI</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>192</v>
       </c>
@@ -18940,7 +18945,7 @@
         <v>NYC</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>193</v>
       </c>
@@ -18973,7 +18978,7 @@
         <v>BOS</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>194</v>
       </c>
@@ -19006,7 +19011,7 @@
         <v>NYC</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>195</v>
       </c>
@@ -19039,7 +19044,7 @@
         <v>CHI</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>196</v>
       </c>
@@ -19072,7 +19077,7 @@
         <v>CHI</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>197</v>
       </c>
@@ -19105,7 +19110,7 @@
         <v>NYC</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>198</v>
       </c>
@@ -19138,7 +19143,7 @@
         <v>CHI</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>199</v>
       </c>
@@ -19171,7 +19176,7 @@
         <v>BOS</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>200</v>
       </c>
@@ -19204,7 +19209,7 @@
         <v>NYC</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>203</v>
       </c>
